--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26950" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,90 +112,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,16 +231,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,29 +254,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,31 +480,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,13 +509,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,21 +538,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,9 +553,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,143 +594,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1086,22 +1083,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.8727272727273" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1170,7 +1167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,13 +1194,13 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>500</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2">
@@ -1220,13 +1217,13 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>500</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
@@ -1243,13 +1240,13 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>500</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
@@ -1266,13 +1263,13 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
@@ -1289,13 +1286,13 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>500</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>UnlockRecipe</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>1001|20;1002|20</t>
   </si>
   <si>
     <t>None</t>
@@ -112,28 +112,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -142,27 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -173,28 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,50 +225,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,25 +270,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,18 +396,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,133 +408,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,21 +475,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,15 +512,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -545,19 +521,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,16 +541,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,22 +1083,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.3727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -112,12 +112,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,19 +148,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +221,29 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,105 +254,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,25 +270,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,16 +479,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -511,9 +520,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,8 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,32 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -582,145 +582,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1083,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1092,7 +1092,7 @@
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1247,10 +1247,10 @@
         <v>500</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1270,10 +1270,10 @@
         <v>500</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -1293,10 +1293,10 @@
         <v>500</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -70,19 +70,31 @@
     <t>UnlockRecipe</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>1001|10</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>1001|80;1002|40</t>
+  </si>
+  <si>
     <t>Recipe1</t>
   </si>
   <si>
+    <t>1003|20;1002|250</t>
+  </si>
+  <si>
     <t>Recipe2</t>
   </si>
   <si>
+    <t>1003|400;1002|2000</t>
+  </si>
+  <si>
     <t>Recipe3</t>
+  </si>
+  <si>
+    <t>1003|5000;1004|2000</t>
   </si>
 </sst>
 </file>
@@ -111,6 +123,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -125,9 +192,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,74 +224,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,8 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,22 +264,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,13 +282,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +372,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,13 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,115 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,15 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,32 +502,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +545,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -582,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,13 +1095,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
@@ -1198,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1218,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -1233,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1241,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1256,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1264,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1279,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1287,10 +1299,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -34,13 +34,19 @@
     <t>食物上限</t>
   </si>
   <si>
-    <t>食物恢复速度</t>
+    <t>每5分钟食物恢复</t>
   </si>
   <si>
     <t>解锁菜品</t>
   </si>
   <si>
+    <t>恢复满时间</t>
+  </si>
+  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>int</t>
@@ -124,34 +130,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,66 +146,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,31 +235,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,25 +288,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,157 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +493,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,39 +577,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,36 +594,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,15 +1096,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="2" customWidth="1"/>
@@ -1110,7 +1116,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,82 +1138,88 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1216,21 +1228,25 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <f>ROUND(E5/F5*5,1)</f>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -1239,21 +1255,25 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H6" s="2">
+        <f>ROUND(E6/F6*5,1)</f>
+        <v>37.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>2200</v>
@@ -1262,21 +1282,25 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="2">
+        <f>ROUND(E7/F7*5,1)</f>
+        <v>33.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>12000</v>
@@ -1285,21 +1309,25 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H8" s="2">
+        <f>ROUND(E8/F8*5,1)</f>
+        <v>37.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>80000</v>
@@ -1308,13 +1336,17 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <f>ROUND(E9/F9*5,1)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -34,7 +34,7 @@
     <t>食物上限</t>
   </si>
   <si>
-    <t>每5分钟食物恢复</t>
+    <t>每分钟食物恢复</t>
   </si>
   <si>
     <t>解锁菜品</t>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,10 +130,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +182,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,68 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,23 +235,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,14 +252,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,37 +288,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +444,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,15 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -517,6 +508,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,23 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(E5/F5*5,1)</f>
+        <f>ROUND(E5/F5,1)</f>
         <v>50</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="2">
-        <f>ROUND(E6/F6*5,1)</f>
+        <f>ROUND(E6/F6,1)</f>
         <v>37.5</v>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1291,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="2">
-        <f>ROUND(E7/F7*5,1)</f>
+        <f>ROUND(E7/F7,1)</f>
         <v>33.3</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -1318,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="2">
-        <f>ROUND(E8/F8*5,1)</f>
+        <f>ROUND(E8/F8,1)</f>
         <v>37.5</v>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -1345,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="2">
-        <f>ROUND(E9/F9*5,1)</f>
+        <f>ROUND(E9/F9,1)</f>
         <v>50</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25470" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>ID</t>
   </si>
@@ -79,25 +79,13 @@
     <t>1001|10</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>1001|80;1002|40</t>
   </si>
   <si>
-    <t>Recipe1</t>
-  </si>
-  <si>
     <t>1003|20;1002|250</t>
   </si>
   <si>
-    <t>Recipe2</t>
-  </si>
-  <si>
     <t>1003|400;1002|2000</t>
-  </si>
-  <si>
-    <t>Recipe3</t>
   </si>
   <si>
     <t>1003|5000;1004|2000</t>
@@ -109,9 +97,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,7 +117,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -137,39 +230,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,92 +247,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,31 +276,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,25 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,121 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +486,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -508,6 +531,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,65 +578,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -600,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,22 +1089,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.2545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.8727272727273" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1233,8 +1221,8 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
+      <c r="G5" s="2">
+        <v>-1</v>
       </c>
       <c r="H5" s="2">
         <f>ROUND(E5/F5,1)</f>
@@ -1246,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -1260,8 +1248,8 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
+      <c r="G6" s="2">
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6/F6,1)</f>
@@ -1273,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>2200</v>
@@ -1287,8 +1275,8 @@
       <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
+      <c r="G7" s="2">
+        <v>2</v>
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7/F7,1)</f>
@@ -1300,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>12000</v>
@@ -1314,8 +1302,8 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
+      <c r="G8" s="2">
+        <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8/F8,1)</f>
@@ -1327,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>80000</v>
@@ -1341,8 +1329,8 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
+      <c r="G9" s="2">
+        <v>-1</v>
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9/F9,1)</f>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25470" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,35 +125,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +232,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +247,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,76 +260,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -282,19 +282,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,139 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,32 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -531,6 +505,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,25 +569,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +600,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,115 +618,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,22 +1089,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6:G8"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.2545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.2583333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.3727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1246,14 +1246,14 @@
         <v>75</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6/F6,1)</f>
-        <v>37.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1273,14 +1273,14 @@
         <v>100</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7/F7,1)</f>
-        <v>33.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1300,14 +1300,14 @@
         <v>150</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8/F8,1)</f>
-        <v>37.5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1327,14 +1327,14 @@
         <v>250</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9/F9,1)</f>
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,14 +118,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,128 +260,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -276,19 +276,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +414,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,11 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,26 +517,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +527,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +562,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6/F6,1)</f>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1270,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7/F7,1)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1297,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8/F8,1)</f>
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9/F9,1)</f>
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>恢复满时间</t>
+  </si>
+  <si>
+    <t>任务人数</t>
   </si>
   <si>
     <t>A</t>
@@ -1084,15 +1087,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.2583333333333" style="2" customWidth="1"/>
@@ -1104,7 +1107,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,85 +1132,91 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1216,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1226,15 +1235,19 @@
       </c>
       <c r="H5" s="2">
         <f>ROUND(E5/F5,1)</f>
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <f>E5/5</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -1243,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1253,15 +1266,19 @@
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6/F6,1)</f>
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <f>E6/5</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>2200</v>
@@ -1273,22 +1290,26 @@
         <v>80</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7/F7,1)</f>
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="I7" s="2">
+        <f>E7/5</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>12000</v>
@@ -1300,22 +1321,26 @@
         <v>120</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8/F8,1)</f>
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="I8" s="2">
+        <f>E8/5</f>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>80000</v>
@@ -1327,14 +1352,18 @@
         <v>180</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9/F9,1)</f>
-        <v>180</v>
+        <v>60</v>
+      </c>
+      <c r="I9" s="2">
+        <f>E9/5</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -82,16 +82,19 @@
     <t>1001|10</t>
   </si>
   <si>
+    <t>主石</t>
+  </si>
+  <si>
     <t>1001|80;1002|40</t>
   </si>
   <si>
-    <t>1003|20;1002|250</t>
-  </si>
-  <si>
-    <t>1003|400;1002|2000</t>
-  </si>
-  <si>
-    <t>1003|5000;1004|2000</t>
+    <t>1003|20;1002|180</t>
+  </si>
+  <si>
+    <t>1003|240;1002|1200</t>
+  </si>
+  <si>
+    <t>1003|2400;1004|1200</t>
   </si>
 </sst>
 </file>
@@ -99,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,59 +131,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,76 +266,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -279,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,17 +491,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +522,51 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,66 +588,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,137 +606,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,6 +744,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1087,24 +1094,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.2583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
@@ -1211,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1241,13 +1250,22 @@
         <f>E5/5</f>
         <v>6</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -1272,13 +1290,19 @@
         <f>E6/5</f>
         <v>10</v>
       </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>2200</v>
@@ -1303,13 +1327,22 @@
         <f>E7/5</f>
         <v>16</v>
       </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>360</v>
+      </c>
+      <c r="N7" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>12000</v>
@@ -1334,13 +1367,22 @@
         <f>E8/5</f>
         <v>24</v>
       </c>
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N8" s="2">
+        <v>240</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>80000</v>
@@ -1365,10 +1407,17 @@
         <f>E9/5</f>
         <v>36</v>
       </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2">
+        <v>2400</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
+  <sortState ref="L11:N35">
+    <sortCondition ref="L11"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -88,13 +88,13 @@
     <t>1001|80;1002|40</t>
   </si>
   <si>
-    <t>1003|20;1002|180</t>
-  </si>
-  <si>
-    <t>1003|240;1002|1200</t>
-  </si>
-  <si>
-    <t>1003|2400;1004|1200</t>
+    <t>1003|75;1002|180</t>
+  </si>
+  <si>
+    <t>1003|500;1002|1200</t>
+  </si>
+  <si>
+    <t>1003|5000;1004|2500</t>
   </si>
 </sst>
 </file>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -131,6 +131,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,6 +161,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,67 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,15 +207,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +252,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,22 +491,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,16 +539,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -556,35 +578,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,139 +609,142 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1099,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1334,7 +1337,7 @@
         <v>360</v>
       </c>
       <c r="N7" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1367,14 +1370,14 @@
         <f>E8/5</f>
         <v>24</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>2400</v>
       </c>
       <c r="N8" s="2">
-        <v>240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1410,15 +1413,12 @@
       <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="2">
-        <v>2400</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="L11:N35">
-    <sortCondition ref="L11"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -43,7 +43,7 @@
     <t>恢复满时间</t>
   </si>
   <si>
-    <t>任务人数</t>
+    <t>任务人次</t>
   </si>
   <si>
     <t>A</t>
@@ -124,59 +124,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,75 +266,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -282,6 +282,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,175 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,39 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -541,8 +508,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -563,6 +532,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -578,13 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,145 +606,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1102,7 +1099,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1247,11 +1244,11 @@
       </c>
       <c r="H5" s="2">
         <f>ROUND(E5/F5,1)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2">
         <f>E5/5</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>21</v>
@@ -1277,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1287,11 +1284,11 @@
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6/F6,1)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2">
         <f>E6/5</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L6" s="2">
         <v>2</v>
@@ -1317,14 +1314,14 @@
         <v>80</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7/F7,1)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2">
         <f>E7/5</f>
@@ -1354,23 +1351,23 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8/F8,1)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2">
         <f>E8/5</f>
-        <v>24</v>
-      </c>
-      <c r="L8" s="4">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3">
         <v>4</v>
       </c>
       <c r="M8" s="3">
@@ -1394,26 +1391,26 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9/F9,1)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I9" s="2">
         <f>E9/5</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="2">
         <v>5000</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30960" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>食物上限</t>
   </si>
   <si>
-    <t>每分钟食物恢复</t>
+    <t>多少秒恢复一个</t>
   </si>
   <si>
     <t>解锁菜品</t>
@@ -102,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -130,8 +130,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -139,19 +162,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -159,9 +213,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,95 +252,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,6 +282,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,55 +306,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,109 +426,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,21 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -513,54 +498,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,7 +521,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,24 +1099,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.8727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.87272727272727" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.37272727272727" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1237,14 +1237,14 @@
         <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>-1</v>
       </c>
       <c r="H5" s="2">
         <f>ROUND(E5/F5,1)</f>
-        <v>50</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="2">
         <f>E5/5</f>
@@ -1277,14 +1277,14 @@
         <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6/F6,1)</f>
-        <v>60</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="2">
         <f>E6/5</f>
@@ -1314,14 +1314,14 @@
         <v>80</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7/F7,1)</f>
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
         <f>E7/5</f>
@@ -1354,14 +1354,14 @@
         <v>100</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8/F8,1)</f>
-        <v>100</v>
+        <v>1.1</v>
       </c>
       <c r="I8" s="2">
         <f>E8/5</f>
@@ -1394,14 +1394,14 @@
         <v>120</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9/F9,1)</f>
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="I9" s="2">
         <f>E9/5</f>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30960" windowHeight="14840"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -123,6 +123,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -130,24 +167,86 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,105 +261,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -282,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,30 +516,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -557,16 +537,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,24 +1099,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.3727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.8727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.87272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1237,14 +1237,14 @@
         <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2">
         <v>-1</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(E5/F5,1)</f>
-        <v>0.8</v>
+        <f>ROUND(E5*F5/60,1)</f>
+        <v>75</v>
       </c>
       <c r="I5" s="2">
         <f>E5/5</f>
@@ -1277,14 +1277,14 @@
         <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <f>ROUND(E6/F6,1)</f>
-        <v>0.9</v>
+        <f>ROUND(E6*F6/60,1)</f>
+        <v>80</v>
       </c>
       <c r="I6" s="2">
         <f>E6/5</f>
@@ -1314,14 +1314,14 @@
         <v>80</v>
       </c>
       <c r="F7" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <f>ROUND(E7/F7,1)</f>
-        <v>1</v>
+        <f>ROUND(E7*F7/60,1)</f>
+        <v>93.3</v>
       </c>
       <c r="I7" s="2">
         <f>E7/5</f>
@@ -1354,14 +1354,14 @@
         <v>100</v>
       </c>
       <c r="F8" s="2">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
       </c>
       <c r="H8" s="2">
-        <f>ROUND(E8/F8,1)</f>
-        <v>1.1</v>
+        <f>ROUND(E8*F8/60,1)</f>
+        <v>108.3</v>
       </c>
       <c r="I8" s="2">
         <f>E8/5</f>
@@ -1394,14 +1394,14 @@
         <v>120</v>
       </c>
       <c r="F9" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
-        <f>ROUND(E9/F9,1)</f>
-        <v>1.2</v>
+        <f>ROUND(E9*F9/60,1)</f>
+        <v>120</v>
       </c>
       <c r="I9" s="2">
         <f>E9/5</f>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -85,16 +85,16 @@
     <t>主石</t>
   </si>
   <si>
-    <t>1001|80;1002|40</t>
-  </si>
-  <si>
-    <t>1003|75;1002|180</t>
-  </si>
-  <si>
-    <t>1003|500;1002|1200</t>
-  </si>
-  <si>
-    <t>1003|5000;1004|2500</t>
+    <t>1001|150;1002|80</t>
+  </si>
+  <si>
+    <t>1003|15;1002|380</t>
+  </si>
+  <si>
+    <t>1003|800;1002|1300</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|1500</t>
   </si>
 </sst>
 </file>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,12 +125,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -139,14 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,53 +200,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,44 +238,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -261,7 +246,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +282,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +378,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,139 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +492,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -502,6 +517,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,41 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -588,16 +577,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1305,7 +1305,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1331,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="M7" s="3">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="N7" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1345,7 +1345,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1371,10 +1371,10 @@
         <v>4</v>
       </c>
       <c r="M8" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="N8" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2">
-        <v>80000</v>
+        <v>6800</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -124,13 +124,70 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -139,10 +196,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,14 +228,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,6 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,90 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +282,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,25 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,133 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,16 +492,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +530,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,30 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -577,27 +588,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,14 +1237,14 @@
         <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G5" s="2">
         <v>-1</v>
       </c>
       <c r="H5" s="2">
         <f>ROUND(E5*F5/60,1)</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2">
         <f>E5/5</f>
@@ -1277,14 +1277,14 @@
         <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6*F6/60,1)</f>
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2">
         <f>E6/5</f>
@@ -1314,14 +1314,14 @@
         <v>80</v>
       </c>
       <c r="F7" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7*F7/60,1)</f>
-        <v>93.3</v>
+        <v>160</v>
       </c>
       <c r="I7" s="2">
         <f>E7/5</f>
@@ -1354,14 +1354,14 @@
         <v>100</v>
       </c>
       <c r="F8" s="2">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8*F8/60,1)</f>
-        <v>108.3</v>
+        <v>175</v>
       </c>
       <c r="I8" s="2">
         <f>E8/5</f>
@@ -1394,14 +1394,14 @@
         <v>120</v>
       </c>
       <c r="F9" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9*F9/60,1)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I9" s="2">
         <f>E9/5</f>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>任务人次</t>
+  </si>
+  <si>
+    <t>每日极限任务</t>
   </si>
   <si>
     <t>A</t>
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -123,6 +126,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -131,87 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -221,10 +225,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,32 +240,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +285,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,169 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,21 +495,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -524,6 +512,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -532,9 +544,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,11 +570,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,25 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,12 +1097,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1113,10 +1116,11 @@
     <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,88 +1148,94 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1250,22 +1260,26 @@
         <f>E5/5</f>
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="J5" s="2">
+        <f>ROUND(3600*24/F5/5,0)</f>
+        <v>115</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -1290,19 +1304,23 @@
         <f>E6/5</f>
         <v>12</v>
       </c>
-      <c r="L6" s="2">
+      <c r="J6" s="2">
+        <f>ROUND(3600*24/F6/5,0)</f>
+        <v>128</v>
+      </c>
+      <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>1500</v>
@@ -1327,22 +1345,26 @@
         <f>E7/5</f>
         <v>16</v>
       </c>
-      <c r="L7" s="2">
+      <c r="J7" s="2">
+        <f>ROUND(3600*24/F7/5,0)</f>
+        <v>144</v>
+      </c>
+      <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>750</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>3200</v>
@@ -1367,22 +1389,26 @@
         <f>E8/5</f>
         <v>20</v>
       </c>
-      <c r="L8" s="3">
+      <c r="J8" s="2">
+        <f>ROUND(3600*24/F8/5,0)</f>
+        <v>165</v>
+      </c>
+      <c r="M8" s="3">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>6800</v>
@@ -1407,11 +1433,15 @@
         <f>E9/5</f>
         <v>24</v>
       </c>
-      <c r="L9" s="2">
+      <c r="J9" s="2">
+        <f>ROUND(3600*24/F9/5,0)</f>
+        <v>192</v>
+      </c>
+      <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2">
+      <c r="N9" s="4"/>
+      <c r="O9" s="2">
         <v>2000</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -106,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -126,6 +126,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -147,54 +193,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,55 +240,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,24 +285,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,162 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +494,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,11 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,11 +548,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,55 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2">
         <v>150</v>
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H5" s="2">
         <f>ROUND(E5*F5/60,1)</f>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I5" s="2">
         <f>E5/5</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2">
         <f>ROUND(3600*24/F5/5,0)</f>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2">
         <v>135</v>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="H6" s="2">
         <f>ROUND(E6*F6/60,1)</f>
-        <v>135</v>
+        <v>281.3</v>
       </c>
       <c r="I6" s="2">
         <f>E6/5</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2">
         <f>ROUND(3600*24/F6/5,0)</f>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2">
         <v>120</v>
@@ -1339,11 +1339,11 @@
       </c>
       <c r="H7" s="2">
         <f>ROUND(E7*F7/60,1)</f>
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="I7" s="2">
         <f>E7/5</f>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <f>ROUND(3600*24/F7/5,0)</f>
@@ -1373,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="F8" s="2">
         <v>105</v>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="H8" s="2">
         <f>ROUND(E8*F8/60,1)</f>
-        <v>175</v>
+        <v>306.3</v>
       </c>
       <c r="I8" s="2">
         <f>E8/5</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2">
         <f>ROUND(3600*24/F8/5,0)</f>
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2">
         <v>90</v>
@@ -1427,11 +1427,11 @@
       </c>
       <c r="H9" s="2">
         <f>ROUND(E9*F9/60,1)</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I9" s="2">
         <f>E9/5</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2">
         <f>ROUND(3600*24/F9/5,0)</f>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -82,22 +82,22 @@
     <t>UnlockRecipe</t>
   </si>
   <si>
-    <t>1001|10</t>
+    <t>1001|5;1002|10</t>
   </si>
   <si>
     <t>主石</t>
   </si>
   <si>
-    <t>1001|150;1002|80</t>
-  </si>
-  <si>
-    <t>1003|15;1002|380</t>
-  </si>
-  <si>
-    <t>1003|800;1002|1300</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|1500</t>
+    <t>1001|25;1002|50</t>
+  </si>
+  <si>
+    <t>1001|180;1004|150</t>
+  </si>
+  <si>
+    <t>1001|800;1004|600</t>
+  </si>
+  <si>
+    <t>1003|540;1004|1800</t>
   </si>
 </sst>
 </file>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,9 +126,137 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,134 +269,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -285,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,8 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +548,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,45 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,19 +609,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,112 +630,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -82,22 +82,22 @@
     <t>UnlockRecipe</t>
   </si>
   <si>
-    <t>1001|5;1002|10</t>
+    <t>1001|20;1002|10</t>
   </si>
   <si>
     <t>主石</t>
   </si>
   <si>
-    <t>1001|25;1002|50</t>
-  </si>
-  <si>
-    <t>1001|180;1004|150</t>
-  </si>
-  <si>
-    <t>1001|800;1004|600</t>
-  </si>
-  <si>
-    <t>1003|540;1004|1800</t>
+    <t>1001|100;1002|60</t>
+  </si>
+  <si>
+    <t>1003|200;1002|200</t>
+  </si>
+  <si>
+    <t>1003|800;1002|600</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|1600</t>
   </si>
 </sst>
 </file>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -134,43 +134,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,71 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +254,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -285,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +499,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +561,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -597,145 +597,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -82,7 +82,7 @@
     <t>UnlockRecipe</t>
   </si>
   <si>
-    <t>1001|20;1002|10</t>
+    <t>1001|5;1002|5</t>
   </si>
   <si>
     <t>主石</t>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,6 +126,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -134,12 +149,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -148,6 +186,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -155,53 +194,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,56 +241,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,19 +285,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,163 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,9 +496,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,7 +509,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +530,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -553,26 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,16 +558,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -34,7 +34,7 @@
     <t>食物上限</t>
   </si>
   <si>
-    <t>多少秒恢复一个</t>
+    <t>多少秒恢复一个，秒</t>
   </si>
   <si>
     <t>解锁菜品</t>
@@ -105,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -126,6 +126,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -135,19 +180,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -155,9 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,13 +230,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -188,7 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,75 +264,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,49 +285,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,31 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,97 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,25 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1112,7 +1112,7 @@
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.25833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="2" customWidth="1"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -82,22 +82,22 @@
     <t>UnlockRecipe</t>
   </si>
   <si>
-    <t>1001|5;1002|5</t>
+    <t>1001|10;1002|10</t>
   </si>
   <si>
     <t>主石</t>
   </si>
   <si>
-    <t>1001|100;1002|60</t>
-  </si>
-  <si>
-    <t>1003|200;1002|200</t>
-  </si>
-  <si>
-    <t>1003|800;1002|600</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|1600</t>
+    <t>1001|60;1002|60</t>
+  </si>
+  <si>
+    <t>1001|300;1004|150</t>
+  </si>
+  <si>
+    <t>1001|1000;1004|600</t>
+  </si>
+  <si>
+    <t>1003|1800;1004|1800</t>
   </si>
 </sst>
 </file>
@@ -105,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -127,6 +127,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,22 +141,84 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,108 +232,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,37 +285,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,145 +441,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,35 +490,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +524,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,11 +566,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,13 +91,13 @@
     <t>1001|60;1002|60</t>
   </si>
   <si>
-    <t>1001|300;1004|150</t>
-  </si>
-  <si>
-    <t>1001|1000;1004|600</t>
-  </si>
-  <si>
-    <t>1003|1800;1004|1800</t>
+    <t>1001|180;1004|80</t>
+  </si>
+  <si>
+    <t>1001|400;1004|250</t>
+  </si>
+  <si>
+    <t>1003|1000;1004|1000</t>
   </si>
 </sst>
 </file>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,6 +127,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,7 +163,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,16 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,105 +269,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -285,73 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,109 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +494,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -505,21 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,15 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,6 +558,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,27 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
